--- a/src/static/notas/listado.xlsx
+++ b/src/static/notas/listado.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="1001" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="601" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Idenficacion</t>
   </si>
@@ -40,7 +40,10 @@
     <t xml:space="preserve">division</t>
   </si>
   <si>
-    <t xml:space="preserve">Mariela Zambrana</t>
+    <t xml:space="preserve">Camilo Soler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grey Yamile Bucuru</t>
   </si>
 </sst>
 </file>
@@ -50,7 +53,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -73,6 +76,13 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -122,12 +132,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -148,15 +162,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -180,10 +194,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>12312312</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -196,6 +210,26 @@
         <v>5</v>
       </c>
       <c r="F2" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>121223</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="0" t="n">
         <v>5</v>
       </c>
     </row>

--- a/src/static/notas/listado.xlsx
+++ b/src/static/notas/listado.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Idenficacion</t>
   </si>
@@ -34,16 +34,19 @@
     <t xml:space="preserve">resta</t>
   </si>
   <si>
-    <t xml:space="preserve">multiplicacion</t>
+    <t xml:space="preserve">mutiplicacion</t>
   </si>
   <si>
     <t xml:space="preserve">division</t>
   </si>
   <si>
-    <t xml:space="preserve">Camilo Soler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grey Yamile Bucuru</t>
+    <t xml:space="preserve">Camilo   Soler  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Guillermo   Soler Bucuru  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Perez</t>
   </si>
 </sst>
 </file>
@@ -162,15 +165,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -204,7 +207,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>5</v>
@@ -215,13 +218,13 @@
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>121223</v>
+        <v>1070984384</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>4</v>
@@ -230,7 +233,27 @@
         <v>5</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>1010101</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/notas/listado.xlsx
+++ b/src/static/notas/listado.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Idenficacion</t>
   </si>
@@ -28,22 +28,31 @@
     <t xml:space="preserve">Nombre Completo</t>
   </si>
   <si>
-    <t xml:space="preserve">suma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutiplicacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">division</t>
+    <t xml:space="preserve">Nota 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nota 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nota 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nota 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nota 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nota 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promedio</t>
   </si>
   <si>
     <t xml:space="preserve">Camilo   Soler  </t>
   </si>
   <si>
-    <t xml:space="preserve">Daniel Guillermo   Soler Bucuru  </t>
+    <t xml:space="preserve">Daniel Guillermo     Soler Bucuru    </t>
   </si>
   <si>
     <t xml:space="preserve">Carlos Perez</t>
@@ -165,15 +174,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -183,25 +192,34 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>5</v>
@@ -210,38 +228,58 @@
         <v>4</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <f aca="false">+AVERAGE(C2,D2,E2,F2,G2,H2)</f>
+        <v>4.33333333333333</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>1070984384</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">+AVERAGE(C3,D3,E3,F3,G3,H3)</f>
+        <v>4.83333333333333</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>1010101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>5</v>
@@ -253,7 +291,17 @@
         <v>5</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <f aca="false">+AVERAGE(C4,D4,E4,F4,G4,H4)</f>
+        <v>4.83333333333333</v>
       </c>
     </row>
   </sheetData>
